--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/A/20/seed3/result_data_RandomForest.xlsx
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.37550000000001</v>
+        <v>-22.41030000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.01559999999999</v>
+        <v>-22.03499999999999</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.44800000000001</v>
+        <v>-21.4097</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.24700000000001</v>
+        <v>-22.20140000000002</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.77069999999999</v>
+        <v>-21.72529999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.98649999999998</v>
+        <v>-19.81329999999999</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.1532</v>
+        <v>-22.1871</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.48389999999998</v>
+        <v>-21.46499999999999</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.18919999999999</v>
+        <v>-20.12809999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.54029999999998</v>
+        <v>-19.69169999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.37119999999999</v>
+        <v>-20.27009999999999</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-19.5421</v>
+        <v>-19.3276</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-22.1268</v>
+        <v>-22.1226</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.7309</v>
+        <v>-21.63210000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-21.96919999999999</v>
+        <v>-21.9737</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-20.59649999999999</v>
+        <v>-20.62519999999998</v>
       </c>
       <c r="B101" t="n">
         <v>8.42</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-20.56459999999997</v>
+        <v>-20.32619999999998</v>
       </c>
       <c r="B102" t="n">
         <v>9.130000000000001</v>
